--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V5 Consolidating by Reference/W1_Consolidate2.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V5 Consolidating by Reference/W1_Consolidate2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 1\W1-V5 Consolidating by Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6304C1-E200-485F-BF9A-71E21854A71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43" windowWidth="37397" windowHeight="15994"/>
+    <workbookView xWindow="-12" yWindow="6180" windowWidth="11520" windowHeight="6192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HR EXPENSES" sheetId="8" r:id="rId1"/>
@@ -20,12 +21,12 @@
     <definedName name="WeekEnding" localSheetId="0">'HR EXPENSES'!#REF!</definedName>
     <definedName name="WeekEnding">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>TOTAL</t>
   </si>
@@ -52,12 +53,33 @@
   </si>
   <si>
     <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Customer Service</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>Facilities</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="dddd"/>
@@ -373,15 +395,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Do Not Type" xfId="4"/>
+    <cellStyle name="Do Not Type" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input Custom" xfId="2"/>
-    <cellStyle name="Instructions" xfId="5"/>
+    <cellStyle name="Input Custom" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Instructions" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Totals" xfId="3"/>
+    <cellStyle name="Table Totals" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -432,7 +454,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Expense Report" defaultPivotStyle="PivotStyleLight15">
-    <tableStyle name="Expense Report" pivot="0" count="3">
+    <tableStyle name="Expense Report" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="totalRow" dxfId="1"/>
       <tableStyleElement type="lastColumn" dxfId="0"/>
@@ -758,27 +780,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="17.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="17.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
@@ -791,8 +813,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
@@ -812,88 +834,158 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+    <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14">
+        <v>31</v>
+      </c>
+      <c r="D5" s="14">
+        <v>28</v>
+      </c>
+      <c r="E5" s="14">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14">
+        <v>19</v>
+      </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14">
+        <v>21</v>
+      </c>
+      <c r="D6" s="14">
+        <v>15</v>
+      </c>
+      <c r="E6" s="14">
+        <v>25</v>
+      </c>
+      <c r="F6" s="14">
+        <v>41</v>
+      </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14">
+        <v>4</v>
+      </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14">
+        <v>31</v>
+      </c>
+      <c r="E8" s="14">
+        <v>38</v>
+      </c>
+      <c r="F8" s="14">
+        <v>29</v>
+      </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14">
+        <v>33</v>
+      </c>
+      <c r="E10" s="14">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14">
+        <v>37</v>
+      </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="5"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14">
+        <v>40</v>
+      </c>
+      <c r="F11" s="14">
+        <v>56</v>
+      </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="16">
         <f t="shared" ref="C12:F12" si="0">SUM(C5:C11)</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="F12" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="G12" s="16">
         <f>SUM(G5:G11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -901,7 +993,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
@@ -921,81 +1013,151 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="D15" s="14">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="E15" s="14">
+        <v>7</v>
+      </c>
+      <c r="F15" s="14">
+        <v>6.333333333333333</v>
+      </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="5"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14">
+        <v>7</v>
+      </c>
+      <c r="D16" s="14">
+        <v>5</v>
+      </c>
+      <c r="E16" s="14">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F16" s="14">
+        <v>13.666666666666666</v>
+      </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="5"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="14">
+        <v>5</v>
+      </c>
+      <c r="D17" s="14">
+        <v>3</v>
+      </c>
+      <c r="E17" s="14">
+        <v>6</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="D18" s="14">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="E18" s="14">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="F18" s="14">
+        <v>9.6666666666666661</v>
+      </c>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="14">
+        <v>5</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0</v>
+      </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="14">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="D20" s="14">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F20" s="14">
+        <v>12.333333333333334</v>
+      </c>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="5"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="14">
+        <v>12</v>
+      </c>
+      <c r="D21" s="14">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E21" s="14">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F21" s="14">
+        <v>18.666666666666668</v>
+      </c>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="17" t="e">
+      <c r="C22" s="17">
         <f>AVERAGE(C15:C21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="17" t="e">
+        <v>7.1904761904761907</v>
+      </c>
+      <c r="D22" s="17">
         <f t="shared" ref="D22:G22" si="1">AVERAGE(D15:D21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="17" t="e">
+        <v>6.0476190476190483</v>
+      </c>
+      <c r="E22" s="17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="17" t="e">
+        <v>8.5238095238095237</v>
+      </c>
+      <c r="F22" s="17">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.9523809523809526</v>
       </c>
       <c r="G22" s="17" t="e">
         <f t="shared" si="1"/>
@@ -1003,10 +1165,16 @@
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
+  <dataConsolidate function="average" leftLabels="1">
+    <dataRefs count="3">
+      <dataRef ref="B5:F10" sheet="LEAVE DAYS" r:id="rId1"/>
+      <dataRef ref="B5:F9" sheet="LEAVE DAYS" r:id="rId2"/>
+      <dataRef ref="B5:F11" sheet="LEAVE DAYS" r:id="rId3"/>
+    </dataRefs>
+  </dataConsolidate>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
